--- a/FIGURES/Table2_Stats.xlsx
+++ b/FIGURES/Table2_Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinds02/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinds02/Desktop/GITHUB/Pub-Quiescence/FIGURES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DE3095-6A28-DF4D-9643-17A32D17A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79666CC-EAD0-A74F-9E41-89A54C85B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="760" windowWidth="19700" windowHeight="17300" xr2:uid="{0BDD8FDA-A9BF-2D49-93DF-420C8B685161}"/>
+    <workbookView xWindow="10540" yWindow="760" windowWidth="19700" windowHeight="17260" xr2:uid="{0BDD8FDA-A9BF-2D49-93DF-420C8B685161}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Predictor</t>
   </si>
@@ -89,12 +89,25 @@
       <t>**</t>
     </r>
   </si>
+  <si>
+    <t>Mean chl</t>
+  </si>
+  <si>
+    <t>Include chl for 1 week</t>
+  </si>
+  <si>
+    <t>t-value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +128,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -156,12 +176,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,22 +522,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33C0EC5-903B-8B42-A302-59C71F687312}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -545,7 +571,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -562,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -578,6 +604,115 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-2.6899369999999999E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2.3235749999999999E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.97345919999999997</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-1.157672</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.246998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.0553357299999999</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.51733664000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.8729395000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.0399400000000001</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4.1356299999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7">
+        <v>-1.2885745200000001</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.38018601000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.27566350000000001</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-3.3893270000000002</v>
+      </c>
+      <c r="F19" s="9">
+        <v>7.0064529999999995E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-1.81560514</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.76949429000000003</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.16273940000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2.3594780000000002</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1.8300650000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FIGURES/Table2_Stats.xlsx
+++ b/FIGURES/Table2_Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlinds02/Desktop/GITHUB/Pub-Quiescence/FIGURES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79666CC-EAD0-A74F-9E41-89A54C85B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825A9312-7767-C64A-8C6C-03AB85CD1544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="760" windowWidth="19700" windowHeight="17260" xr2:uid="{0BDD8FDA-A9BF-2D49-93DF-420C8B685161}"/>
+    <workbookView xWindow="15840" yWindow="760" windowWidth="19700" windowHeight="17260" xr2:uid="{0BDD8FDA-A9BF-2D49-93DF-420C8B685161}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Predictor</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Depth</t>
-  </si>
-  <si>
-    <t>Ecotype</t>
   </si>
   <si>
     <t>Mean Water Temp</t>
@@ -93,10 +90,34 @@
     <t>Mean chl</t>
   </si>
   <si>
-    <t>Include chl for 1 week</t>
-  </si>
-  <si>
     <t>t-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Including CHL for 2 weeks before: </t>
+  </si>
+  <si>
+    <t>Include chl for 1 week before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Chl </t>
+  </si>
+  <si>
+    <t>For every additional meter of depth, the odds of being in a higher rank category decrease by 2.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sym are 187% higher chance to be more quiescent </t>
+  </si>
+  <si>
+    <t>for every 1˚C increase in water temp, the odds of being in a higher rank category decrease by 72.4%</t>
+  </si>
+  <si>
+    <t>for every 1 unit incrase in chl, the odds of being in a higher category decrease by 83.7%</t>
+  </si>
+  <si>
+    <t>Morphotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morphotype </t>
   </si>
 </sst>
 </file>
@@ -104,8 +125,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -182,11 +203,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33C0EC5-903B-8B42-A302-59C71F687312}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,80 +558,206 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.0051000000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.503</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-2.0579000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.40460000000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>-1.06E-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B10" s="6">
+        <v>-2.6899369999999999E-2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.3235749999999999E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.97345919999999997</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1.157672</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.246998</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1.0553357299999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.51733664000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.8729395000000002</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.0399400000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4.1356299999999999E-2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>1.0051000000000001</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.503</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.7320000000000002</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>-2.0579000000000001</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.40460000000000002</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.128</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B12" s="7">
+        <v>-1.2885745200000001</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.38018601000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.27566350000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-3.3893270000000002</v>
+      </c>
+      <c r="F12" s="9">
+        <v>7.0064529999999995E-4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="6">
+        <v>-1.81560514</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.76949429000000003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.16273940000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-2.3594780000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.8300650000000002E-2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,10 +768,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
@@ -635,84 +782,80 @@
         <v>4</v>
       </c>
       <c r="B17" s="6">
-        <v>-2.6899369999999999E-2</v>
+        <v>-2.4735549999999999E-2</v>
       </c>
       <c r="C17" s="6">
-        <v>2.3235749999999999E-2</v>
+        <v>2.346459E-2</v>
       </c>
       <c r="D17" s="3">
-        <v>0.97345919999999997</v>
+        <v>0.97556790000000004</v>
       </c>
       <c r="E17" s="3">
-        <v>-1.157672</v>
+        <v>-1.054165</v>
       </c>
       <c r="F17" s="5">
-        <v>0.246998</v>
+        <v>0.29180729999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7">
-        <v>1.0553357299999999</v>
+        <v>1.04016957</v>
       </c>
       <c r="C18" s="6">
-        <v>0.51733664000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.8729395000000002</v>
+        <v>0.51330832000000004</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.8296967999999998</v>
       </c>
       <c r="E18" s="3">
-        <v>2.0399400000000001</v>
+        <v>2.0264030000000002</v>
       </c>
       <c r="F18" s="8">
-        <v>4.1356299999999999E-2</v>
+        <v>4.2723490000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="7">
-        <v>-1.2885745200000001</v>
+        <v>-1.3610996500000001</v>
       </c>
       <c r="C19" s="6">
-        <v>0.38018601000000002</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.27566350000000001</v>
+        <v>0.43872952999999998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.25637870000000001</v>
       </c>
       <c r="E19" s="3">
-        <v>-3.3893270000000002</v>
+        <v>-3.102366</v>
       </c>
       <c r="F19" s="9">
-        <v>7.0064529999999995E-4</v>
+        <v>1.9198030000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="6">
-        <v>-1.81560514</v>
+        <v>-1.4094520699999999</v>
       </c>
       <c r="C20" s="6">
-        <v>0.76949429000000003</v>
+        <v>0.78263959999999999</v>
       </c>
       <c r="D20" s="3">
-        <v>0.16273940000000001</v>
+        <v>0.2442771</v>
       </c>
       <c r="E20" s="3">
-        <v>-2.3594780000000002</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1.8300650000000002E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+        <v>-1.8008949999999999</v>
+      </c>
+      <c r="F20" s="5">
+        <v>7.1719359999999996E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
